--- a/jonghwa/Requirement_list.xlsx
+++ b/jonghwa/Requirement_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\troas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\troas\Desktop\sw_engine\SW_engineering_project\jonghwa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDA02B0E-403C-44CE-AAD9-78ED00EB912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67E989A-7DEE-4BBB-B3ED-FA3D81862D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24310" yWindow="560" windowWidth="21600" windowHeight="14010" xr2:uid="{B6ADF05C-7024-471B-8934-ACD475A82CAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B6ADF05C-7024-471B-8934-ACD475A82CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,20 +208,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원이 판매한 상품에 대한 총액 및 평균 구매만족도와 구매한 상품에 대한 
-총액 및 평균 구매만족도를 출력한다. 이때, 삭제된 구매 내역은 통계에서 제외한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 판매/구매 통계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Nonfunctional</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 상품을 선택한 후에 그 상품을 삭제할 수 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매의류 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가된 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이 구매한 상품에 대한 총액 및 평균 구매만족도를 출력한다. 이때, 삭제된 구매 내역은 통계에서 제외한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회원이 판매한 상품에 대한 총액 및 평균 구매만족도를 출력한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 판매 통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 구매 통계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99071AE7-9A83-42EA-9DD9-49689436F465}">
-  <dimension ref="B1:E25"/>
+  <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -634,8 +653,8 @@
     <col min="4" max="4" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -657,7 +676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -668,7 +687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -679,7 +698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -690,7 +709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -701,7 +720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -712,7 +731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
@@ -723,87 +742,90 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
+      <c r="C10" t="s">
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
-        <v>21</v>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -811,27 +833,24 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>24</v>
+      <c r="C18" t="s">
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -839,21 +858,24 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>44</v>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
@@ -861,10 +883,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
@@ -872,24 +894,24 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>32</v>
+      <c r="C23" t="s">
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -897,20 +919,42 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>35</v>
       </c>
     </row>

--- a/jonghwa/Requirement_list.xlsx
+++ b/jonghwa/Requirement_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\troas\Desktop\sw_engine\SW_engineering_project\jonghwa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67E989A-7DEE-4BBB-B3ED-FA3D81862D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F5EAB9-D22B-4462-B911-5F68E663A37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B6ADF05C-7024-471B-8934-ACD475A82CAE}"/>
+    <workbookView xWindow="1785" yWindow="1245" windowWidth="14895" windowHeight="13680" xr2:uid="{B6ADF05C-7024-471B-8934-ACD475A82CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99071AE7-9A83-42EA-9DD9-49689436F465}">
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -961,5 +961,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>